--- a/biology/Botanique/Pédicelle_(botanique)/Pédicelle_(botanique).xlsx
+++ b/biology/Botanique/Pédicelle_(botanique)/Pédicelle_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9dicelle_(botanique)</t>
+          <t>Pédicelle_(botanique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, le pédicelle est une petite tige qui porte les fleurs de certaines inflorescences. Les inflorescences de ce type sont appelées « pédicellées ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9dicelle_(botanique)</t>
+          <t>Pédicelle_(botanique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pédicelle est un petit axe qui relie chaque fleur individuelle à son inflorescence[1]. En absence de pédicelle, les fleurs sont appelées sessiles. On utilise aussi le mot pour les tiges des fruits individuels d'une infrutescence. « Pédicelle » dérive du latin pediculus, qui signifie « petit pied »[2].
-La tige ou la branche qui porte l'inflorescence est appelée pédoncule[3]. Un pédicelle peut aussi avoir une ou plusieurs bractées[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pédicelle est un petit axe qui relie chaque fleur individuelle à son inflorescence. En absence de pédicelle, les fleurs sont appelées sessiles. On utilise aussi le mot pour les tiges des fruits individuels d'une infrutescence. « Pédicelle » dérive du latin pediculus, qui signifie « petit pied ».
+La tige ou la branche qui porte l'inflorescence est appelée pédoncule. Un pédicelle peut aussi avoir une ou plusieurs bractées.
 </t>
         </is>
       </c>
